--- a/Package Leads.xlsx
+++ b/Package Leads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,160 +52,130 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Create_ Leads_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LeadsOne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url should be launched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on  UserName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Name should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password should be entered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on  SignIn button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sign in should be clicked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on on Leads tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leads page will get opened</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Close the dialogue box</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dialogue box should get close</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>account page should get open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on First Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text can be entered in First Name field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Last Name field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text can be entered in Last Name field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Company field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text can be entered in Company  field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Lead Status field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dropdown will be displayed and we can select a value from the Lead Status  dropdown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Save button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clicking on Save button then all this data will get saved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Edit button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit button can be clicked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Profile link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fields present in Profile link will be displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify clicking on Logout button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We will be logged out of salesforce</x:t>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Lead tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Lead Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Company </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Company field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Company field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field First Name, Last Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  First Name, Last Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Lead Status </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Lead Status field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Lead Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Lead with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Lead is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Lead tab,  and select a Lead </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Lead name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Lead Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Lead tab,  and click on existing Lead to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Lead Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Lead is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Lead tab,  and select the existing  Lead to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Lead is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -289,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0">
-  <x:autoFilter ref="A1:K21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0">
+  <x:autoFilter ref="A1:K16"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -596,20 +566,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K21"/>
+  <x:dimension ref="A1:K16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="48.840625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="31.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="78.980624999999989" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="134.13062499999998" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -660,16 +630,18 @@
       <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
@@ -680,15 +652,17 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -699,15 +673,17 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -718,15 +694,17 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -739,32 +717,40 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
+      <x:c r="A7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -777,32 +763,40 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -813,15 +807,17 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -832,15 +828,17 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -851,15 +849,17 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -872,32 +872,40 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
+      <x:c r="A14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -910,13 +918,13 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -929,112 +937,17 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
       <x:c r="K16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:11">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-      <x:c r="K17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-      <x:c r="K18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:11">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-      <x:c r="K19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:11">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-      <x:c r="K20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:11">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-      <x:c r="K21" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
